--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="484">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-trialuse</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-13T14:50:01+02:00</t>
+    <t>2023-11-16T14:46:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,6 +127,132 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: SNOMED CT Concept Domain Binding</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: SNOMED CT Attribute Binding</t>
   </si>
   <si>
     <t>Vital Signs
@@ -153,7 +279,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-lab-obs1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Observation-resultslab-eu-lab')}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-lab-obs1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Observation-resultslab-eu-lab')}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-material:Material declared by Observation.code or non-mandatory. {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification').not() implies specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.text.exists() and specimen.resolve().type.text.first()='Material declared by Observation.code or non-mandatory'}</t>
   </si>
   <si>
     <t>Event</t>
@@ -315,33 +441,57 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Observation.extension:observation-instantiates-r5</t>
+  </si>
+  <si>
+    <t>observation-instantiates-r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-lab-report/StructureDefinition/observation-instantiates}
+</t>
+  </si>
+  <si>
+    <t>instantiate observationDefinition r5</t>
+  </si>
+  <si>
+    <t>This extension implements the R5 instantiates[x] element, to link the ch-lab-result to the observationDefinition r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -349,6 +499,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -493,25 +646,67 @@
     <t>Classification of  type of observation</t>
   </si>
   <si>
+    <t>A code that classifies the general type of observation being made. In this profile, fixed to "laboratory".</t>
+  </si>
+  <si>
+    <t>"laboratory" includes laboratory medicine and pathology</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.category:laboratory</t>
+  </si>
+  <si>
+    <t>laboratory</t>
+  </si>
+  <si>
     <t>A code that classifies the general type of observation being made.</t>
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
   </si>
   <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
+    &lt;code value="laboratory"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Observation.category:studyType</t>
+  </si>
+  <si>
+    <t>studyType</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/laboratory/ValueSet/lab-studyType-eu-lab</t>
+  </si>
+  <si>
+    <t>Observation.category:specialty</t>
+  </si>
+  <si>
+    <t>specialty</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/laboratory/ValueSet/lab-specialty-eu-lab</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -537,11 +732,10 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-laboratory-observation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -746,6 +940,10 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+  </si>
+  <si>
     <t>Actual result</t>
   </si>
   <si>
@@ -774,10 +972,23 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueQuantity</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
     <t>Observation.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>Positive/Negative or code for an additional organism specification, see also 'Guidance - Laboratory Result'</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-coded-values-laboratory</t>
@@ -799,9 +1010,6 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
@@ -1019,6 +1227,9 @@
   </si>
   <si>
     <t>Observation.referenceRange.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1267,10 +1478,6 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1635,7 +1842,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP52"/>
+  <dimension ref="A1:AP58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1644,14 +1851,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.9296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.4140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.3125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="25.80859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.203125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="107.140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1659,2227 +1867,2233 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.203125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="69.88671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.484375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="6.75" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.203125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="20.46484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="15.64453125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="29.53125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="L1" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="K1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="AN1" t="s" s="2">
+      <c r="L1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="AO1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP1" t="s" s="2">
-        <v>41</v>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="AP1" t="s" s="1">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH7" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AG7" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AI7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>112</v>
-      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O11" t="s" s="2">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="O12" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P12" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="D17" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="D18" t="s" s="2">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>194</v>
+        <v>83</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>195</v>
+        <v>83</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="D19" t="s" s="2">
-        <v>199</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>200</v>
@@ -3888,4074 +4102,4802 @@
         <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>204</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AC19" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD19" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>206</v>
+        <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AO19" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="AP19" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>213</v>
+        <v>105</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>210</v>
+        <v>83</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="P21" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>227</v>
+        <v>83</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>150</v>
+        <v>251</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD23" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>206</v>
+        <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>41</v>
+        <v>256</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>237</v>
+        <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>240</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>262</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>162</v>
+        <v>263</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>163</v>
+        <v>264</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>164</v>
+        <v>265</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>243</v>
+        <v>83</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>168</v>
+        <v>270</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>169</v>
+        <v>271</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="D25" t="s" s="2">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>150</v>
+        <v>262</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>249</v>
+        <v>83</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>251</v>
+        <v>83</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>252</v>
+        <v>83</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>63</v>
+        <v>275</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>94</v>
+        <v>270</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>162</v>
+        <v>278</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>163</v>
+        <v>279</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>169</v>
+        <v>282</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>41</v>
+        <v>283</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>41</v>
+        <v>292</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>150</v>
+        <v>294</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>271</v>
+        <v>83</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>41</v>
+        <v>299</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>276</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="D29" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>150</v>
+        <v>306</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>283</v>
+        <v>83</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>41</v>
+        <v>299</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>41</v>
+        <v>300</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>41</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="D30" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>287</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>289</v>
+        <v>225</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="P30" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>41</v>
+        <v>310</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>291</v>
+        <v>83</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>292</v>
+        <v>230</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>293</v>
+        <v>231</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>294</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>296</v>
+        <v>200</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="P31" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>41</v>
+        <v>316</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>41</v>
+        <v>318</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>300</v>
+        <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>301</v>
+        <v>136</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>303</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>41</v>
+        <v>321</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>306</v>
+        <v>224</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>307</v>
+        <v>225</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>308</v>
+        <v>226</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>41</v>
+        <v>323</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>310</v>
+        <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>311</v>
+        <v>230</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>312</v>
+        <v>231</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="P33" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>98</v>
+        <v>333</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>100</v>
+        <v>335</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>41</v>
+        <v>336</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>41</v>
+        <v>338</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>41</v>
+        <v>339</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>41</v>
+        <v>340</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>41</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>323</v>
+        <v>83</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>100</v>
+        <v>346</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>106</v>
+        <v>347</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>41</v>
+        <v>336</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>41</v>
+        <v>348</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>41</v>
+        <v>349</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>94</v>
+        <v>351</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>331</v>
+        <v>83</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>41</v>
+        <v>357</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>41</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>331</v>
+        <v>83</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>41</v>
+        <v>366</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>41</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>150</v>
+        <v>371</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>343</v>
+        <v>83</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>344</v>
+        <v>83</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>63</v>
+        <v>376</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>345</v>
+        <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>353</v>
+        <v>83</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>354</v>
+        <v>83</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>345</v>
+        <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>346</v>
+        <v>83</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>356</v>
+        <v>138</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>41</v>
+        <v>390</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>314</v>
+        <v>138</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P41" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>332</v>
+        <v>83</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>364</v>
+        <v>136</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>305</v>
+        <v>200</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>41</v>
+        <v>410</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>41</v>
+        <v>411</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>41</v>
+        <v>412</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>384</v>
+        <v>414</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>314</v>
+        <v>200</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>315</v>
+        <v>416</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="P45" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>41</v>
+        <v>336</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>41</v>
+        <v>420</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>41</v>
+        <v>421</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>317</v>
+        <v>415</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>41</v>
+        <v>412</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>41</v>
+        <v>413</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>318</v>
+        <v>414</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>97</v>
+        <v>423</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>98</v>
+        <v>424</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="P46" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>321</v>
+        <v>422</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>318</v>
+        <v>427</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>323</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>97</v>
+        <v>380</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>324</v>
+        <v>429</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>326</v>
+        <v>428</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>41</v>
+        <v>399</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>94</v>
+        <v>431</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>150</v>
+        <v>433</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>392</v>
+        <v>83</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>393</v>
+        <v>83</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>394</v>
+        <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>185</v>
+        <v>437</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>396</v>
+        <v>83</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>233</v>
+        <v>442</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>401</v>
+        <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>238</v>
+        <v>437</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>239</v>
+        <v>444</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>240</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>150</v>
+        <v>371</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>248</v>
+        <v>449</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>249</v>
+        <v>83</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>251</v>
+        <v>83</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>252</v>
+        <v>83</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>94</v>
+        <v>450</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>253</v>
+        <v>451</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>249</v>
+        <v>83</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>410</v>
+        <v>83</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>411</v>
+        <v>83</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>412</v>
+        <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>413</v>
+        <v>83</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>414</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>311</v>
+        <v>83</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>312</v>
+        <v>384</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="487">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T14:46:54+01:00</t>
+    <t>2024-01-31T12:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-lab-obs1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Observation-resultslab-eu-lab')}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-material:Material declared by Observation.code or non-mandatory. {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification').not() implies specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.text.exists() and specimen.resolve().type.text.first()='Material declared by Observation.code or non-mandatory'}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-lab-obs1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Observation-resultslab-eu-lab')}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}</t>
   </si>
   <si>
     <t>Event</t>
@@ -639,42 +639,46 @@
     <t>Observation.category</t>
   </si>
   <si>
+    <t xml:space="preserve">CodeableConcept {http://hl7.org/fhir/uv/ips/StructureDefinition/CodeableConcept-uv-ips}
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made. In this profile, fixed to "laboratory".</t>
+  </si>
+  <si>
+    <t>"laboratory" includes laboratory medicine and pathology</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.category:laboratory</t>
+  </si>
+  <si>
+    <t>laboratory</t>
+  </si>
+  <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made. In this profile, fixed to "laboratory".</t>
-  </si>
-  <si>
-    <t>"laboratory" includes laboratory medicine and pathology</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:$this}
-</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Observation.category:laboratory</t>
-  </si>
-  <si>
-    <t>laboratory</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.</t>
@@ -697,13 +701,19 @@
     <t>studyType</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/laboratory/ValueSet/lab-studyType-eu-lab</t>
+    <t>The clinical domain of the laboratory performing the observation (e.g. microbiology, toxicology, chemistry)</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-lab-report/ValueSet/ch-lab-report-lab-study-types</t>
   </si>
   <si>
     <t>Observation.category:specialty</t>
   </si>
   <si>
     <t>specialty</t>
+  </si>
+  <si>
+    <t>The way of grouping of the test results into clinically meaningful groups (e.g. liver test; minerals; glucose profiles)</t>
   </si>
   <si>
     <t>http://hl7.eu/fhir/laboratory/ValueSet/lab-specialty-eu-lab</t>
@@ -3850,16 +3860,16 @@
         <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>201</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>204</v>
@@ -3872,7 +3882,7 @@
         <v>83</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>83</v>
@@ -3946,13 +3956,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>199</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>83</v>
@@ -3974,16 +3984,16 @@
         <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>204</v>
@@ -4015,7 +4025,7 @@
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>83</v>
@@ -4068,13 +4078,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>199</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>83</v>
@@ -4096,16 +4106,16 @@
         <v>83</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>204</v>
@@ -4137,7 +4147,7 @@
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>83</v>
@@ -4190,14 +4200,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4216,19 +4226,19 @@
         <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
@@ -4253,11 +4263,11 @@
         <v>83</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>83</v>
@@ -4275,7 +4285,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>93</v>
@@ -4296,10 +4306,10 @@
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4310,10 +4320,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4336,19 +4346,19 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>83</v>
@@ -4397,7 +4407,7 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4412,19 +4422,19 @@
         <v>105</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>83</v>
@@ -4432,10 +4442,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4458,16 +4468,16 @@
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4517,7 +4527,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4538,13 +4548,13 @@
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
@@ -4552,14 +4562,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4578,19 +4588,19 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>83</v>
@@ -4639,7 +4649,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4654,19 +4664,19 @@
         <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>83</v>
@@ -4674,14 +4684,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4700,19 +4710,19 @@
         <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -4749,17 +4759,17 @@
         <v>83</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4774,19 +4784,19 @@
         <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
@@ -4794,16 +4804,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4822,19 +4832,19 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -4883,7 +4893,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4895,22 +4905,22 @@
         <v>83</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
@@ -4918,10 +4928,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4944,16 +4954,16 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5003,7 +5013,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5024,13 +5034,13 @@
         <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
@@ -5038,10 +5048,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5064,17 +5074,17 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5123,7 +5133,7 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5138,19 +5148,19 @@
         <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>83</v>
@@ -5158,10 +5168,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5184,19 +5194,19 @@
         <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5233,7 +5243,7 @@
         <v>83</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
@@ -5243,7 +5253,7 @@
         <v>142</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5252,7 +5262,7 @@
         <v>93</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>105</v>
@@ -5261,30 +5271,30 @@
         <v>83</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>83</v>
@@ -5306,19 +5316,19 @@
         <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
@@ -5367,7 +5377,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5376,7 +5386,7 @@
         <v>93</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>105</v>
@@ -5385,30 +5395,30 @@
         <v>83</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>83</v>
@@ -5430,19 +5440,19 @@
         <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>83</v>
@@ -5471,7 +5481,7 @@
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>83</v>
@@ -5489,7 +5499,7 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5510,10 +5520,10 @@
         <v>83</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
@@ -5524,10 +5534,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5550,19 +5560,19 @@
         <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5587,13 +5597,13 @@
         <v>83</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>83</v>
@@ -5611,7 +5621,7 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5620,7 +5630,7 @@
         <v>93</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>105</v>
@@ -5635,7 +5645,7 @@
         <v>136</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -5646,14 +5656,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5672,19 +5682,19 @@
         <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>83</v>
@@ -5713,25 +5723,25 @@
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5752,10 +5762,10 @@
         <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
@@ -5766,10 +5776,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5792,19 +5802,19 @@
         <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>83</v>
@@ -5853,7 +5863,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -5874,10 +5884,10 @@
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -5888,10 +5898,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5914,16 +5924,16 @@
         <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5949,13 +5959,13 @@
         <v>83</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>83</v>
@@ -5973,7 +5983,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -5991,27 +6001,27 @@
         <v>83</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6034,19 +6044,19 @@
         <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -6071,13 +6081,13 @@
         <v>83</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>83</v>
@@ -6095,7 +6105,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6116,10 +6126,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6130,10 +6140,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6156,16 +6166,16 @@
         <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6215,7 +6225,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6233,27 +6243,27 @@
         <v>83</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6276,16 +6286,16 @@
         <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6335,7 +6345,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6353,27 +6363,27 @@
         <v>83</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6396,19 +6406,19 @@
         <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6457,7 +6467,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6469,7 +6479,7 @@
         <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>83</v>
@@ -6478,10 +6488,10 @@
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6492,10 +6502,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6518,13 +6528,13 @@
         <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6575,7 +6585,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6599,7 +6609,7 @@
         <v>83</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -6610,10 +6620,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6639,10 +6649,10 @@
         <v>138</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>155</v>
@@ -6695,7 +6705,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6719,7 +6729,7 @@
         <v>83</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -6730,14 +6740,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6759,10 +6769,10 @@
         <v>138</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>155</v>
@@ -6817,7 +6827,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6852,10 +6862,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6878,13 +6888,13 @@
         <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6935,7 +6945,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -6944,7 +6954,7 @@
         <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>105</v>
@@ -6956,10 +6966,10 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -6970,10 +6980,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6996,13 +7006,13 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7053,7 +7063,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7062,7 +7072,7 @@
         <v>93</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>105</v>
@@ -7074,10 +7084,10 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7088,10 +7098,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7114,19 +7124,19 @@
         <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
@@ -7154,10 +7164,10 @@
         <v>117</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>83</v>
@@ -7175,7 +7185,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7193,13 +7203,13 @@
         <v>83</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7210,10 +7220,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7236,19 +7246,19 @@
         <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>83</v>
@@ -7273,13 +7283,13 @@
         <v>83</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>83</v>
@@ -7297,7 +7307,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7315,13 +7325,13 @@
         <v>83</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7332,10 +7342,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7358,17 +7368,17 @@
         <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7417,7 +7427,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7441,7 +7451,7 @@
         <v>83</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7452,10 +7462,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7478,13 +7488,13 @@
         <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7535,7 +7545,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7556,10 +7566,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -7570,10 +7580,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7596,16 +7606,16 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7655,7 +7665,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7676,10 +7686,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -7690,10 +7700,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7716,16 +7726,16 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7775,7 +7785,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7796,10 +7806,10 @@
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -7810,10 +7820,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7836,19 +7846,19 @@
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -7897,7 +7907,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -7918,10 +7928,10 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -7932,10 +7942,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7958,13 +7968,13 @@
         <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8015,7 +8025,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8039,7 +8049,7 @@
         <v>83</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8050,10 +8060,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8079,10 +8089,10 @@
         <v>138</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>155</v>
@@ -8135,7 +8145,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8159,7 +8169,7 @@
         <v>83</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8170,14 +8180,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8199,10 +8209,10 @@
         <v>138</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>155</v>
@@ -8257,7 +8267,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8292,10 +8302,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8318,19 +8328,19 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8355,13 +8365,13 @@
         <v>83</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>83</v>
@@ -8379,7 +8389,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>93</v>
@@ -8397,16 +8407,16 @@
         <v>83</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -8414,10 +8424,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8440,19 +8450,19 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8501,7 +8511,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8519,27 +8529,27 @@
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8562,19 +8572,19 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -8599,13 +8609,13 @@
         <v>83</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>83</v>
@@ -8623,7 +8633,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8632,7 +8642,7 @@
         <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>105</v>
@@ -8647,7 +8657,7 @@
         <v>136</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -8658,14 +8668,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8684,19 +8694,19 @@
         <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -8721,13 +8731,13 @@
         <v>83</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>83</v>
@@ -8745,7 +8755,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8763,27 +8773,27 @@
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8809,16 +8819,16 @@
         <v>84</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -8867,7 +8877,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -8888,10 +8898,10 @@
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T12:59:55+01:00</t>
+    <t>2024-02-27T13:26:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-lab-obs1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Observation-resultslab-eu-lab')}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-lab-obs1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Observation-resultslab-eu-lab')}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies (specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies (value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-interpretation-code-loinc:If Observation.code is a mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-interpretation-code-snomedct:If Observation.code is a mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code)}</t>
   </si>
   <si>
     <t>Event</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1861,17 +1861,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.4140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.80859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="25.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="107.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="111.11328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1880,28 +1880,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="69.88671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.19921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-lab-obs1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Observation-resultslab-eu-lab')}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies (specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies (value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-interpretation-code-loinc:If Observation.code is a mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-interpretation-code-snomedct:If Observation.code is a mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code)}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-lab-obs1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Observation-resultslab-eu-lab')}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies (specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies (value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-interpretation-code-loinc:If Observation.code is a mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-interpretation-code-snomedct:If Observation.code is a mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code)}ch-elm-patient-name-representation-initial-loinc:If Observation.code is a mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given can must have one character {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials')))}ch-elm-patient-name-representation-initial-snomedct:If Observation.code is a mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given can must have one character {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials')))}ch-elm-patient-name-representation-initial-or-vctcode-loinc:If Observation.code is a mapped to initials or vctcode in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given can must have one character {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials-or-vctcode' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials') or subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientVCT')))}ch-elm-patient-name-representation-initial-or-vctcode-snomedct:If Observation.code is a mapped to initials or vctcode in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given can must have one character {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials-or-vctcode' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials') or subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientVCT')))}</t>
   </si>
   <si>
     <t>Event</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4776" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4776" uniqueCount="662">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}eu-lab-1:If observation status is other then "registered" or "cancelled", at least one of these Observation elements shall be provided:  "value", "dataAbsentReason", "hasMember" or "component" {(status in ('registered'|'cancelled')) or value.exists() or hasMember.exists() or component.exists() or dataAbsentReason.exists()}eu-lab-2:If observation has components and observation status is other then "registered" or "cancelled", at least one of these Observation.component elements shall be provided:  "value" or "dataAbsentReason" {component.exists() implies (status in ('registered'|'cancelled')) or component.value.exists() or component.dataAbsentReason.exists()}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies (specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies (value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-interpretation-code-loinc:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-interpretation-code-snomedct:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code)}ch-elm-patient-name-representation-initial-loinc:If Observation.code is mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given must have one character and the following elements must not be provided: patient.telecom, patient.address.line {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials')))}ch-elm-patient-name-representation-initial-snomedct:If Observation.code is mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given must have one character and the following elements must not be provided: patient.telecom, patient.address.line {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials')))}ch-elm-patient-name-representation-initial-or-vctcode-loinc:If Observation.code is mapped to initials or vctcode in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name family and given must have one character or - in case of a VCT patient - must be masked and the following elements must not be provided: patient.telecom, patient.address.line. {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials-or-vctcode' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials') or subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientVCT')))}ch-elm-patient-name-representation-initial-or-vctcode-snomedct:If Observation.code is mapped to initials or vctcode in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name family and given must have one character or - in case of a VCT patient - must be masked and the following elements must not be provided: patient.telecom, patient.address.line. {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials-or-vctcode' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials') or subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientVCT')))}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}eu-lab-1:If observation status is other then "registered" or "cancelled", at least one of these Observation elements shall be provided:  "value", "dataAbsentReason", "hasMember" or "component" {(status in ('registered'|'cancelled')) or value.exists() or hasMember.exists() or component.exists() or dataAbsentReason.exists()}eu-lab-2:If observation has components and observation status is other then "registered" or "cancelled", at least one of these Observation.component elements shall be provided:  "value" or "dataAbsentReason" {component.exists() implies (status in ('registered'|'cancelled')) or component.value.exists() or component.dataAbsentReason.exists()}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies (specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies (value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-interpretation-code-loinc:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-interpretation-code-snomedct:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code)}ch-elm-patient-name-representation-initial-loinc:If Observation.code is mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given must have one character and the following elements must not be provided: patient.telecom, patient.address.line {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials')))}ch-elm-patient-name-representation-initial-snomedct:If Observation.code is mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given must have one character and the following elements must not be provided: patient.telecom, patient.address.line {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials')))}ch-elm-patient-name-representation-initial-or-vctcode-loinc:If Observation.code is mapped to initials or vctcode in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name family and given must have one character or - in case of a VCT patient - must be masked and the following elements must not be provided: patient.telecom, patient.address.line. {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials-or-vctcode' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials') or subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientVCT')))}ch-elm-patient-name-representation-initial-or-vctcode-snomedct:If Observation.code is mapped to initials or vctcode in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name family and given must have one character or - in case of a VCT patient - must be masked and the following elements must not be provided: patient.telecom, patient.address.line. {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials-or-vctcode' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials') or subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientVCT')))}ch-elm-observation-profile-loinc:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile', then the observation must be conform to the mapped profile {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).exists() implies conformsTo('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-observation-profile-snomedct:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile', then the observation must be conform to the mapped profile {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).exists() implies conformsTo('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code)}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1363,6 +1363,10 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
+    <t>string
+QuantityCodeableConcept</t>
+  </si>
+  <si>
     <t>Actual result</t>
   </si>
   <si>
@@ -1391,6 +1395,45 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueString</t>
+  </si>
+  <si>
+    <t>valueString</t>
+  </si>
+  <si>
+    <t>String if required by leading code, see also 'Guidance - Laboratory Result'</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {http://hl7.eu/fhir/laboratory/StructureDefinition/Quantity-eu-lab}
+</t>
+  </si>
+  <si>
+    <t>Quantity if required by leading code, see also 'Guidance - Laboratory Result'</t>
+  </si>
+  <si>
+    <t>A measured amount (or an amount that can potentially be measured) and uncertainty of the measurement. Note that measured amounts include amounts that are not precisely quantified, including amounts involving arbitrary units and floating currencies.
+This profile imposes that the code system for units be UCUM.</t>
+  </si>
+  <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
     <t>Observation.value[x]:valueCodeableConcept</t>
   </si>
   <si>
@@ -1401,12 +1444,6 @@
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-coded-values-laboratory</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueString</t>
-  </si>
-  <si>
-    <t>valueString</t>
   </si>
   <si>
     <t>Observation.value[x]:valueRange</t>
@@ -1488,36 +1525,6 @@
   <si>
     <t xml:space="preserve">Period
 </t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity</t>
-  </si>
-  <si>
-    <t>valueQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {http://hl7.eu/fhir/laboratory/StructureDefinition/Quantity-eu-lab}
-</t>
-  </si>
-  <si>
-    <t>A measured amount using UCUM</t>
-  </si>
-  <si>
-    <t>A measured amount (or an amount that can potentially be measured) and uncertainty of the measurement. Note that measured amounts include amounts that are not precisely quantified, including amounts involving arbitrary units and floating currencies.
-This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -2041,6 +2048,9 @@
   </si>
   <si>
     <t>Observation.component.value[x]:valueQuantity</t>
+  </si>
+  <si>
+    <t>A measured amount using UCUM</t>
   </si>
   <si>
     <t>Observation.component.value[x]:valueCodeableConcept</t>
@@ -11342,19 +11352,19 @@
         <v>94</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>283</v>
+        <v>428</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
@@ -11410,7 +11420,7 @@
         <v>93</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>105</v>
@@ -11419,30 +11429,30 @@
         <v>83</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>427</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>83</v>
@@ -11461,22 +11471,22 @@
         <v>83</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>308</v>
+        <v>158</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>310</v>
+        <v>430</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>311</v>
+        <v>431</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>83</v>
@@ -11501,11 +11511,13 @@
         <v>83</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y76" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z76" t="s" s="2">
-        <v>440</v>
+        <v>83</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>83</v>
@@ -11532,7 +11544,7 @@
         <v>93</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>155</v>
+        <v>433</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>105</v>
@@ -11541,19 +11553,19 @@
         <v>83</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>83</v>
+        <v>434</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>315</v>
+        <v>435</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>316</v>
+        <v>436</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>83</v>
+        <v>437</v>
       </c>
     </row>
     <row r="77">
@@ -11583,22 +11595,22 @@
         <v>83</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>158</v>
+        <v>443</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>83</v>
@@ -11656,39 +11668,39 @@
         <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>432</v>
+        <v>155</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>105</v>
+        <v>447</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>433</v>
+        <v>83</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>436</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>427</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>83</v>
@@ -11710,19 +11722,19 @@
         <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>445</v>
+        <v>308</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>447</v>
+        <v>310</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>448</v>
+        <v>311</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>83</v>
@@ -11747,13 +11759,11 @@
         <v>83</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>83</v>
+        <v>453</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>83</v>
@@ -11783,7 +11793,7 @@
         <v>155</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>449</v>
+        <v>105</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>83</v>
@@ -11792,10 +11802,10 @@
         <v>83</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>450</v>
+        <v>315</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>451</v>
+        <v>316</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
@@ -11806,13 +11816,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>427</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>83</v>
@@ -11834,19 +11844,19 @@
         <v>83</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>83</v>
@@ -11907,7 +11917,7 @@
         <v>155</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>83</v>
@@ -11916,10 +11926,10 @@
         <v>83</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>136</v>
+        <v>461</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
@@ -11930,13 +11940,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>427</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>83</v>
@@ -11955,22 +11965,22 @@
         <v>83</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>428</v>
+        <v>466</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>83</v>
@@ -12028,39 +12038,39 @@
         <v>93</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>432</v>
+        <v>155</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>105</v>
+        <v>469</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>433</v>
+        <v>83</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>434</v>
+        <v>136</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>435</v>
+        <v>470</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>436</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>427</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>83</v>
@@ -12082,19 +12092,19 @@
         <v>94</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>373</v>
+        <v>473</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>83</v>
@@ -12152,7 +12162,7 @@
         <v>93</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>105</v>
@@ -12161,30 +12171,30 @@
         <v>83</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>427</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>83</v>
@@ -12206,19 +12216,19 @@
         <v>94</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>467</v>
+        <v>373</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>83</v>
@@ -12276,7 +12286,7 @@
         <v>93</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>105</v>
@@ -12285,30 +12295,30 @@
         <v>83</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>427</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>83</v>
@@ -12327,22 +12337,22 @@
         <v>83</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>473</v>
+        <v>431</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>83</v>
@@ -12400,36 +12410,36 @@
         <v>93</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>155</v>
+        <v>433</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>474</v>
+        <v>105</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>83</v>
+        <v>434</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>83</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12455,16 +12465,16 @@
         <v>283</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>83</v>
@@ -12492,10 +12502,10 @@
         <v>313</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>83</v>
@@ -12513,7 +12523,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12522,7 +12532,7 @@
         <v>93</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>105</v>
@@ -12537,7 +12547,7 @@
         <v>136</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>83</v>
@@ -12548,14 +12558,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12577,7 +12587,7 @@
         <v>308</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>310</v>
@@ -12586,7 +12596,7 @@
         <v>311</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>83</v>
@@ -12614,10 +12624,10 @@
         <v>313</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>83</v>
@@ -12635,7 +12645,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12670,10 +12680,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12696,19 +12706,19 @@
         <v>83</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>83</v>
@@ -12757,7 +12767,7 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12778,10 +12788,10 @@
         <v>83</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>83</v>
@@ -12792,10 +12802,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12821,13 +12831,13 @@
         <v>283</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12853,13 +12863,13 @@
         <v>83</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>83</v>
@@ -12877,7 +12887,7 @@
         <v>83</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -12895,27 +12905,27 @@
         <v>83</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12941,16 +12951,16 @@
         <v>283</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>83</v>
@@ -12979,7 +12989,7 @@
       </c>
       <c r="Y88" s="2"/>
       <c r="Z88" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>83</v>
@@ -12997,7 +13007,7 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -13018,10 +13028,10 @@
         <v>83</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
@@ -13032,10 +13042,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13058,16 +13068,16 @@
         <v>83</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -13117,7 +13127,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -13135,27 +13145,27 @@
         <v>83</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13178,16 +13188,16 @@
         <v>83</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13237,7 +13247,7 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13255,27 +13265,27 @@
         <v>83</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13298,19 +13308,19 @@
         <v>83</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>83</v>
@@ -13359,7 +13369,7 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -13371,7 +13381,7 @@
         <v>83</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>83</v>
@@ -13380,10 +13390,10 @@
         <v>83</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
@@ -13394,10 +13404,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13512,10 +13522,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13632,14 +13642,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13661,10 +13671,10 @@
         <v>138</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>168</v>
@@ -13719,7 +13729,7 @@
         <v>83</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -13754,10 +13764,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13780,13 +13790,13 @@
         <v>83</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13837,7 +13847,7 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13846,7 +13856,7 @@
         <v>93</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>105</v>
@@ -13858,10 +13868,10 @@
         <v>83</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
@@ -13872,10 +13882,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13898,13 +13908,13 @@
         <v>83</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13955,7 +13965,7 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -13964,7 +13974,7 @@
         <v>93</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>105</v>
@@ -13976,10 +13986,10 @@
         <v>83</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
@@ -13990,10 +14000,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14019,16 +14029,16 @@
         <v>283</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>83</v>
@@ -14056,10 +14066,10 @@
         <v>117</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>83</v>
@@ -14077,7 +14087,7 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
@@ -14095,13 +14105,13 @@
         <v>83</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>83</v>
@@ -14112,10 +14122,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14141,16 +14151,16 @@
         <v>283</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
@@ -14175,13 +14185,13 @@
         <v>83</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>83</v>
@@ -14199,7 +14209,7 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14217,13 +14227,13 @@
         <v>83</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -14234,10 +14244,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14260,17 +14270,17 @@
         <v>83</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>83</v>
@@ -14319,7 +14329,7 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -14343,7 +14353,7 @@
         <v>83</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>83</v>
@@ -14354,10 +14364,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14383,10 +14393,10 @@
         <v>158</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14437,7 +14447,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14458,10 +14468,10 @@
         <v>83</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14472,10 +14482,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14498,16 +14508,16 @@
         <v>94</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14557,7 +14567,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14578,10 +14588,10 @@
         <v>83</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
@@ -14592,10 +14602,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14618,16 +14628,16 @@
         <v>94</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14677,7 +14687,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14698,10 +14708,10 @@
         <v>83</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>83</v>
@@ -14712,10 +14722,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14738,19 +14748,19 @@
         <v>94</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>83</v>
@@ -14799,7 +14809,7 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -14820,10 +14830,10 @@
         <v>83</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
@@ -14834,10 +14844,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14952,10 +14962,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15068,10 +15078,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C106" t="s" s="2">
         <v>227</v>
@@ -15188,10 +15198,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15306,10 +15316,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15424,10 +15434,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15544,10 +15554,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15662,14 +15672,14 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15691,10 +15701,10 @@
         <v>138</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="N111" t="s" s="2">
         <v>168</v>
@@ -15749,7 +15759,7 @@
         <v>83</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
@@ -15784,10 +15794,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15813,13 +15823,13 @@
         <v>283</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>312</v>
@@ -15847,13 +15857,13 @@
         <v>83</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>83</v>
@@ -15871,7 +15881,7 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>93</v>
@@ -15889,16 +15899,16 @@
         <v>83</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>358</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AP112" t="s" s="2">
         <v>83</v>
@@ -15906,10 +15916,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15932,19 +15942,19 @@
         <v>94</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>83</v>
@@ -15991,7 +16001,7 @@
         <v>142</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -16009,30 +16019,30 @@
         <v>83</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>83</v>
@@ -16057,16 +16067,16 @@
         <v>158</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>83</v>
@@ -16115,7 +16125,7 @@
         <v>83</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -16133,30 +16143,30 @@
         <v>83</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>83</v>
@@ -16178,19 +16188,19 @@
         <v>83</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>83</v>
@@ -16239,7 +16249,7 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -16251,7 +16261,7 @@
         <v>155</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>83</v>
@@ -16260,10 +16270,10 @@
         <v>83</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>83</v>
@@ -16274,13 +16284,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>83</v>
@@ -16302,19 +16312,19 @@
         <v>83</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>83</v>
@@ -16363,7 +16373,7 @@
         <v>83</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>81</v>
@@ -16375,7 +16385,7 @@
         <v>155</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>83</v>
@@ -16387,7 +16397,7 @@
         <v>136</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>83</v>
@@ -16398,13 +16408,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>83</v>
@@ -16426,19 +16436,19 @@
         <v>94</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>83</v>
@@ -16487,7 +16497,7 @@
         <v>83</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>81</v>
@@ -16505,30 +16515,30 @@
         <v>83</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP117" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>83</v>
@@ -16553,16 +16563,16 @@
         <v>373</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>83</v>
@@ -16611,7 +16621,7 @@
         <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16629,30 +16639,30 @@
         <v>83</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>83</v>
@@ -16674,19 +16684,19 @@
         <v>94</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>83</v>
@@ -16735,7 +16745,7 @@
         <v>83</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>81</v>
@@ -16753,30 +16763,30 @@
         <v>83</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP119" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>83</v>
@@ -16798,19 +16808,19 @@
         <v>83</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>471</v>
+        <v>645</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>83</v>
@@ -16859,7 +16869,7 @@
         <v>83</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -16871,7 +16881,7 @@
         <v>155</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>83</v>
@@ -16880,10 +16890,10 @@
         <v>83</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>83</v>
@@ -16894,13 +16904,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>83</v>
@@ -16925,16 +16935,16 @@
         <v>283</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>83</v>
@@ -16963,7 +16973,7 @@
       </c>
       <c r="Y121" s="2"/>
       <c r="Z121" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>83</v>
@@ -16981,7 +16991,7 @@
         <v>83</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
@@ -16999,27 +17009,27 @@
         <v>83</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP121" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17045,16 +17055,16 @@
         <v>283</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>83</v>
@@ -17082,10 +17092,10 @@
         <v>313</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>83</v>
@@ -17103,7 +17113,7 @@
         <v>83</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -17112,7 +17122,7 @@
         <v>93</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>105</v>
@@ -17127,7 +17137,7 @@
         <v>136</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>83</v>
@@ -17138,14 +17148,14 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -17167,16 +17177,16 @@
         <v>283</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>83</v>
@@ -17204,10 +17214,10 @@
         <v>313</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>83</v>
@@ -17225,7 +17235,7 @@
         <v>83</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -17243,27 +17253,27 @@
         <v>83</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP123" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17289,16 +17299,16 @@
         <v>84</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>83</v>
@@ -17347,7 +17357,7 @@
         <v>83</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>81</v>
@@ -17368,10 +17378,10 @@
         <v>83</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>83</v>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}eu-lab-1:If observation status is other then "registered" or "cancelled", at least one of these Observation elements shall be provided:  "value", "dataAbsentReason", "hasMember" or "component" {(status in ('registered'|'cancelled')) or value.exists() or hasMember.exists() or component.exists() or dataAbsentReason.exists()}eu-lab-2:If observation has components and observation status is other then "registered" or "cancelled", at least one of these Observation.component elements shall be provided:  "value" or "dataAbsentReason" {component.exists() implies (status in ('registered'|'cancelled')) or component.value.exists() or component.dataAbsentReason.exists()}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies (specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies (value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-interpretation-code-loinc:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-interpretation-code-snomedct:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code)}ch-elm-patient-name-representation-initial-loinc:If Observation.code is mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given must have one character and the following elements must not be provided: patient.telecom, patient.address.line {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials')))}ch-elm-patient-name-representation-initial-snomedct:If Observation.code is mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given must have one character and the following elements must not be provided: patient.telecom, patient.address.line {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials')))}ch-elm-patient-name-representation-initial-or-vctcode-loinc:If Observation.code is mapped to initials or vctcode in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name family and given must have one character or - in case of a VCT patient - must be masked and the following elements must not be provided: patient.telecom, patient.address.line. {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials-or-vctcode' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials') or subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientVCT')))}ch-elm-patient-name-representation-initial-or-vctcode-snomedct:If Observation.code is mapped to initials or vctcode in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name family and given must have one character or - in case of a VCT patient - must be masked and the following elements must not be provided: patient.telecom, patient.address.line. {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials-or-vctcode' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials') or subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientVCT')))}ch-elm-observation-profile-loinc:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile', then the observation must be conform to the mapped profile {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).exists() implies conformsTo('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-observation-profile-snomedct:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile', then the observation must be conform to the mapped profile {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).exists() implies conformsTo('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code)}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}eu-lab-1:If observation status is other then "registered" or "cancelled", at least one of these Observation elements shall be provided:  "value", "dataAbsentReason", "hasMember" or "component" {(status in ('registered'|'cancelled')) or value.exists() or hasMember.exists() or component.exists() or dataAbsentReason.exists()}eu-lab-2:If observation has components and observation status is other then "registered" or "cancelled", at least one of these Observation.component elements shall be provided:  "value" or "dataAbsentReason" {component.exists() implies (status in ('registered'|'cancelled')) or component.value.exists() or component.dataAbsentReason.exists()}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies (specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies (value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-interpretation-code-loinc:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-interpretation-code-snomedct:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code)}ch-elm-patient-name-representation-initial-loinc:If Observation.code is mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given must have one character and the following elements must not be provided: patient.telecom, patient.address.line {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials')))}ch-elm-patient-name-representation-initial-snomedct:If Observation.code is mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given must have one character and the following elements must not be provided: patient.telecom, patient.address.line {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials')))}ch-elm-patient-name-representation-initial-or-vctcode-loinc:If Observation.code is mapped to initials or vctcode in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name family and given must have one character or - in case of a VCT patient - must be masked and the following elements must not be provided: patient.telecom, patient.address.line. {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials-or-vctcode' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials') or subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientVCT')))}ch-elm-patient-name-representation-initial-or-vctcode-snomedct:If Observation.code is mapped to initials or vctcode in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name family and given must have one character or - in case of a VCT patient - must be masked and the following elements must not be provided: patient.telecom, patient.address.line. {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials-or-vctcode' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials') or subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientVCT')))}ch-elm-patient-name-representation-hiv-code-loinc:If Observation.code is mapped to hiv-code in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient representation must follow profile resource profile: CH ELM Patient HIV {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'hiv-code' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientHIV')))}ch-elm-patient-name-representation-hiv-code-snomedct:If Observation.code is mapped to hiv-code in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient representation must follow profile resource profile: CH ELM Patient HIV {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'hiv-code' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientHIV')))}ch-elm-observation-profile-loinc:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile', then the observation must be conform to the mapped profile {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).exists() implies conformsTo('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-observation-profile-snomedct:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile', then the observation must be conform to the mapped profile {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).exists() implies conformsTo('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code)}</t>
   </si>
   <si>
     <t>Event</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4776" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4856" uniqueCount="668">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -924,7 +924,7 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -989,13 +989,13 @@
 </t>
   </si>
   <si>
-    <t>Concept - reference to a terminology or just  text</t>
-  </si>
-  <si>
-    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".  In this profile this code represents either a simple laboratory test or a laboratory study with multiple child observations</t>
+  </si>
+  <si>
+    <t>In the context of this Observation-laboratory-uv-ips profile, when the observation plays the role of a grouper of member sub-observations, the code represent the group (for instance a panel code). In case no code is available, at least a text shall be provided.</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
@@ -1007,10 +1007,22 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-laboratory-observation</t>
   </si>
   <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
-    <t>CD</t>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -1143,9 +1155,6 @@
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
   </si>
   <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
     <t>participation[typeCode=SBJ]</t>
   </si>
   <si>
@@ -1364,7 +1373,7 @@
   </si>
   <si>
     <t>string
-QuantityCodeableConcept</t>
+RatioQuantityCodeableConcept</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -1404,6 +1413,32 @@
     <t>String if required by leading code, see also 'Guidance - Laboratory Result'</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueRatio</t>
+  </si>
+  <si>
+    <t>valueRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio {http://hl7.eu/fhir/laboratory/StructureDefinition/Ratio-eu-lab}
+</t>
+  </si>
+  <si>
+    <t>Ratio if required by leading code, see also 'Guidance - Laboratory Result'</t>
+  </si>
+  <si>
+    <t>A measured ratio (or a ratio that can potentially be measured) and uncertainty of the measurement. This profile imposes that the code system for units be UCUM.</t>
+  </si>
+  <si>
+    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+  </si>
+  <si>
+    <t>RTO</t>
+  </si>
+  <si>
     <t>Observation.value[x]:valueQuantity</t>
   </si>
   <si>
@@ -1446,6 +1481,16 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-coded-values-laboratory</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueBoolean</t>
+  </si>
+  <si>
+    <t>valueBoolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
     <t>Observation.value[x]:valueRange</t>
   </si>
   <si>
@@ -1475,32 +1520,6 @@
     <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueRatio</t>
-  </si>
-  <si>
-    <t>valueRatio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio {http://hl7.eu/fhir/laboratory/StructureDefinition/Ratio-eu-lab}
-</t>
-  </si>
-  <si>
-    <t>A measured ratio using UCUM</t>
-  </si>
-  <si>
-    <t>A measured ratio (or a ratio that can potentially be measured) and uncertainty of the measurement. This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueTime</t>
   </si>
   <si>
@@ -1563,6 +1582,12 @@
 </t>
   </si>
   <si>
+    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
+  </si>
+  <si>
+    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
+  </si>
+  <si>
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
@@ -1570,6 +1595,18 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+  </si>
+  <si>
+    <t>&lt; 260245000 |Findings values|</t>
+  </si>
+  <si>
+    <t>OBX-8</t>
+  </si>
+  <si>
+    <t>interpretationCode</t>
+  </si>
+  <si>
+    <t>363713009 |Has interpretation|</t>
   </si>
   <si>
     <t>Observation.note</t>
@@ -1832,9 +1869,6 @@
     <t>OBX-10</t>
   </si>
   <si>
-    <t>interpretationCode</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.appliesTo</t>
   </si>
   <si>
@@ -2007,12 +2041,6 @@
 &lt; 386053000 |Evaluation procedure|</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
     <t>Observation.component.value[x]</t>
   </si>
   <si>
@@ -2032,10 +2060,16 @@
     <t>Observation.component.value[x]:valueString</t>
   </si>
   <si>
+    <t>Observation.component.value[x]:valueBoolean</t>
+  </si>
+  <si>
     <t>Observation.component.value[x]:valueRange</t>
   </si>
   <si>
     <t>Observation.component.value[x]:valueRatio</t>
+  </si>
+  <si>
+    <t>A measured ratio using UCUM</t>
   </si>
   <si>
     <t>Observation.component.value[x]:valueTime</t>
@@ -2076,21 +2110,6 @@
   </si>
   <si>
     <t>High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
-  </si>
-  <si>
-    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
-  </si>
-  <si>
-    <t>&lt; 260245000 |Findings values|</t>
-  </si>
-  <si>
-    <t>OBX-8</t>
-  </si>
-  <si>
-    <t>363713009 |Has interpretation|</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -2406,7 +2425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP124"/>
+  <dimension ref="A1:AP126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8109,7 +8128,7 @@
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>308</v>
@@ -8180,36 +8199,36 @@
         <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>83</v>
+        <v>315</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>83</v>
+        <v>316</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>83</v>
+        <v>319</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>83</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8232,19 +8251,19 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -8293,7 +8312,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8308,19 +8327,19 @@
         <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>83</v>
@@ -8328,10 +8347,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8446,10 +8465,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8566,10 +8585,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8595,13 +8614,13 @@
         <v>158</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8651,7 +8670,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8660,7 +8679,7 @@
         <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>105</v>
@@ -8686,10 +8705,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8715,13 +8734,13 @@
         <v>107</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8750,10 +8769,10 @@
         <v>313</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>83</v>
@@ -8771,7 +8790,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8806,10 +8825,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8835,13 +8854,13 @@
         <v>242</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8891,7 +8910,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8915,7 +8934,7 @@
         <v>83</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -8926,10 +8945,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8955,13 +8974,13 @@
         <v>158</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9011,7 +9030,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -9046,10 +9065,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9072,16 +9091,16 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9131,7 +9150,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -9152,13 +9171,13 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>83</v>
@@ -9166,14 +9185,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9192,19 +9211,19 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -9253,7 +9272,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9268,19 +9287,19 @@
         <v>105</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>83</v>
@@ -9288,14 +9307,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9314,19 +9333,19 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9363,17 +9382,17 @@
         <v>83</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9388,19 +9407,19 @@
         <v>105</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>83</v>
@@ -9408,10 +9427,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9526,10 +9545,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9646,13 +9665,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>83</v>
@@ -9674,13 +9693,13 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9755,7 +9774,7 @@
         <v>83</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
@@ -9766,16 +9785,16 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9794,19 +9813,19 @@
         <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
@@ -9855,7 +9874,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9867,22 +9886,22 @@
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>83</v>
@@ -9890,10 +9909,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10008,10 +10027,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10128,13 +10147,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>83</v>
@@ -10156,13 +10175,13 @@
         <v>83</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10237,7 +10256,7 @@
         <v>83</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
@@ -10248,10 +10267,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10274,16 +10293,16 @@
         <v>94</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10333,7 +10352,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10354,13 +10373,13 @@
         <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>83</v>
@@ -10368,10 +10387,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10394,17 +10413,17 @@
         <v>94</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
@@ -10453,7 +10472,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10468,19 +10487,19 @@
         <v>105</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>83</v>
@@ -10488,10 +10507,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10606,10 +10625,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10726,13 +10745,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>83</v>
@@ -10754,13 +10773,13 @@
         <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10826,7 +10845,7 @@
         <v>144</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>83</v>
@@ -10846,10 +10865,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10875,13 +10894,13 @@
         <v>158</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10931,7 +10950,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10940,7 +10959,7 @@
         <v>93</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>105</v>
@@ -10966,10 +10985,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10995,13 +11014,13 @@
         <v>107</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11030,10 +11049,10 @@
         <v>313</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>83</v>
@@ -11051,7 +11070,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -11086,10 +11105,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11115,13 +11134,13 @@
         <v>242</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11171,7 +11190,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -11195,7 +11214,7 @@
         <v>83</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -11206,10 +11225,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11235,13 +11254,13 @@
         <v>158</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11291,7 +11310,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11326,10 +11345,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11352,19 +11371,19 @@
         <v>94</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
@@ -11401,17 +11420,17 @@
         <v>83</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AC75" s="2"/>
       <c r="AD75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11420,7 +11439,7 @@
         <v>93</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>105</v>
@@ -11429,30 +11448,30 @@
         <v>83</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>83</v>
@@ -11477,16 +11496,16 @@
         <v>158</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>83</v>
@@ -11535,7 +11554,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11544,7 +11563,7 @@
         <v>93</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>105</v>
@@ -11553,30 +11572,30 @@
         <v>83</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>83</v>
@@ -11598,19 +11617,19 @@
         <v>83</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>83</v>
@@ -11659,7 +11678,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11671,7 +11690,7 @@
         <v>155</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>83</v>
@@ -11680,10 +11699,10 @@
         <v>83</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>448</v>
+        <v>136</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
@@ -11694,13 +11713,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>83</v>
@@ -11722,19 +11741,19 @@
         <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>308</v>
+        <v>454</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>310</v>
+        <v>456</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>311</v>
+        <v>457</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>83</v>
@@ -11759,11 +11778,13 @@
         <v>83</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y78" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z78" t="s" s="2">
-        <v>453</v>
+        <v>83</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>83</v>
@@ -11781,7 +11802,7 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11793,7 +11814,7 @@
         <v>155</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>105</v>
+        <v>458</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>83</v>
@@ -11802,10 +11823,10 @@
         <v>83</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>315</v>
+        <v>459</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>316</v>
+        <v>460</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
@@ -11816,13 +11837,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>83</v>
@@ -11841,22 +11862,22 @@
         <v>83</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>456</v>
+        <v>308</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>83</v>
@@ -11881,13 +11902,11 @@
         <v>83</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="Y79" s="2"/>
       <c r="Z79" t="s" s="2">
-        <v>83</v>
+        <v>464</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>83</v>
@@ -11905,7 +11924,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -11914,39 +11933,39 @@
         <v>93</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>155</v>
+        <v>436</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>460</v>
+        <v>105</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>83</v>
+        <v>437</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>83</v>
+        <v>440</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>83</v>
@@ -11965,22 +11984,22 @@
         <v>83</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>83</v>
@@ -12029,7 +12048,7 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -12038,39 +12057,39 @@
         <v>93</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>155</v>
+        <v>436</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>469</v>
+        <v>105</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>83</v>
+        <v>437</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>136</v>
+        <v>438</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>83</v>
+        <v>440</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>83</v>
@@ -12089,22 +12108,22 @@
         <v>83</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N81" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L81" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>431</v>
-      </c>
       <c r="O81" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>83</v>
@@ -12153,7 +12172,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -12162,39 +12181,39 @@
         <v>93</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>433</v>
+        <v>155</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>105</v>
+        <v>474</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>434</v>
+        <v>83</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>437</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>83</v>
@@ -12216,19 +12235,19 @@
         <v>94</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>373</v>
+        <v>479</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>83</v>
@@ -12277,7 +12296,7 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -12286,7 +12305,7 @@
         <v>93</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>105</v>
@@ -12295,30 +12314,30 @@
         <v>83</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>83</v>
@@ -12340,19 +12359,19 @@
         <v>94</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>478</v>
+        <v>376</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>83</v>
@@ -12401,7 +12420,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12410,7 +12429,7 @@
         <v>93</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>105</v>
@@ -12419,29 +12438,31 @@
         <v>83</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="D84" t="s" s="2">
         <v>83</v>
       </c>
@@ -12459,22 +12480,22 @@
         <v>83</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>283</v>
+        <v>484</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>480</v>
+        <v>432</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>481</v>
+        <v>433</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>482</v>
+        <v>434</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>483</v>
+        <v>435</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>83</v>
@@ -12499,13 +12520,13 @@
         <v>83</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>313</v>
+        <v>83</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>484</v>
+        <v>83</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>485</v>
+        <v>83</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>83</v>
@@ -12523,7 +12544,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>479</v>
+        <v>430</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12532,7 +12553,7 @@
         <v>93</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>486</v>
+        <v>436</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>105</v>
@@ -12541,35 +12562,35 @@
         <v>83</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>83</v>
+        <v>437</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>136</v>
+        <v>438</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>487</v>
+        <v>439</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>83</v>
+        <v>440</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>489</v>
+        <v>83</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>93</v>
@@ -12584,19 +12605,19 @@
         <v>83</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>310</v>
+        <v>487</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>311</v>
+        <v>488</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>83</v>
@@ -12624,37 +12645,37 @@
         <v>313</v>
       </c>
       <c r="Y85" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="Z85" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="Z85" t="s" s="2">
+      <c r="AA85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI85" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>105</v>
@@ -12666,10 +12687,10 @@
         <v>83</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>316</v>
+        <v>493</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>83</v>
@@ -12680,21 +12701,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>83</v>
+        <v>495</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>83</v>
@@ -12706,10 +12727,10 @@
         <v>83</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>494</v>
+        <v>308</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>496</v>
@@ -12743,13 +12764,13 @@
         <v>83</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>83</v>
+        <v>313</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>83</v>
+        <v>499</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>83</v>
+        <v>500</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>83</v>
@@ -12767,7 +12788,7 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12785,27 +12806,27 @@
         <v>83</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>83</v>
+        <v>501</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>83</v>
+        <v>504</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12816,7 +12837,7 @@
         <v>81</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>83</v>
@@ -12828,18 +12849,20 @@
         <v>83</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>283</v>
+        <v>506</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O87" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>83</v>
       </c>
@@ -12863,37 +12886,37 @@
         <v>83</v>
       </c>
       <c r="X87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF87" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="Y87" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>501</v>
-      </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>83</v>
@@ -12905,27 +12928,27 @@
         <v>83</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>508</v>
+        <v>83</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>511</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12951,17 +12974,15 @@
         <v>283</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="O88" t="s" s="2">
         <v>516</v>
       </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>83</v>
       </c>
@@ -12985,11 +13006,13 @@
         <v>83</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y88" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="Z88" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>83</v>
@@ -13007,7 +13030,7 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -13025,27 +13048,27 @@
         <v>83</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>83</v>
+        <v>520</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>83</v>
+        <v>523</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13053,7 +13076,7 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>93</v>
@@ -13068,18 +13091,20 @@
         <v>83</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>521</v>
+        <v>283</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>83</v>
       </c>
@@ -13103,13 +13128,11 @@
         <v>83</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="Y89" s="2"/>
       <c r="Z89" t="s" s="2">
-        <v>83</v>
+        <v>529</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>83</v>
@@ -13127,7 +13150,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -13145,27 +13168,27 @@
         <v>83</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>525</v>
+        <v>83</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>528</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13173,7 +13196,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>93</v>
@@ -13188,16 +13211,16 @@
         <v>83</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13247,7 +13270,7 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13265,27 +13288,27 @@
         <v>83</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13296,7 +13319,7 @@
         <v>81</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>83</v>
@@ -13308,20 +13331,18 @@
         <v>83</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>83</v>
       </c>
@@ -13369,45 +13390,45 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>544</v>
+        <v>105</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>83</v>
+        <v>546</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>83</v>
+        <v>549</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13418,7 +13439,7 @@
         <v>81</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>83</v>
@@ -13430,16 +13451,20 @@
         <v>83</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>158</v>
+        <v>551</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>159</v>
+        <v>552</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>555</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>83</v>
       </c>
@@ -13487,19 +13512,19 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>161</v>
+        <v>550</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>83</v>
+        <v>556</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>83</v>
@@ -13508,10 +13533,10 @@
         <v>83</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>83</v>
+        <v>557</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>162</v>
+        <v>558</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>83</v>
@@ -13522,21 +13547,21 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>83</v>
@@ -13548,17 +13573,15 @@
         <v>83</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>83</v>
@@ -13607,19 +13630,19 @@
         <v>83</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>83</v>
@@ -13642,14 +13665,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>550</v>
+        <v>165</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13662,26 +13685,24 @@
         <v>83</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>551</v>
+        <v>166</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>552</v>
+        <v>167</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="O94" t="s" s="2">
-        <v>239</v>
-      </c>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>83</v>
       </c>
@@ -13729,7 +13750,7 @@
         <v>83</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>553</v>
+        <v>170</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -13753,7 +13774,7 @@
         <v>83</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>83</v>
@@ -13764,42 +13785,46 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>83</v>
+        <v>562</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>555</v>
+        <v>138</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>83</v>
       </c>
@@ -13847,19 +13872,19 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>558</v>
+        <v>83</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>83</v>
@@ -13868,10 +13893,10 @@
         <v>83</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>559</v>
+        <v>83</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>560</v>
+        <v>136</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
@@ -13882,10 +13907,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13908,13 +13933,13 @@
         <v>83</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13965,7 +13990,7 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -13974,7 +13999,7 @@
         <v>93</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>105</v>
@@ -13986,10 +14011,10 @@
         <v>83</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
@@ -14000,10 +14025,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14026,20 +14051,16 @@
         <v>83</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>283</v>
+        <v>567</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>569</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>83</v>
       </c>
@@ -14063,40 +14084,40 @@
         <v>83</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Y97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI97" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>105</v>
@@ -14105,13 +14126,13 @@
         <v>83</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>572</v>
+        <v>83</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>83</v>
@@ -14122,10 +14143,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14136,7 +14157,7 @@
         <v>81</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>83</v>
@@ -14151,16 +14172,16 @@
         <v>283</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
@@ -14185,13 +14206,13 @@
         <v>83</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>505</v>
+        <v>117</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>83</v>
@@ -14209,13 +14230,13 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>83</v>
@@ -14227,13 +14248,13 @@
         <v>83</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>574</v>
+        <v>503</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -14244,10 +14265,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14258,7 +14279,7 @@
         <v>81</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>83</v>
@@ -14270,17 +14291,19 @@
         <v>83</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>583</v>
+        <v>283</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>588</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>589</v>
+      </c>
       <c r="O99" t="s" s="2">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>83</v>
@@ -14305,13 +14328,13 @@
         <v>83</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>83</v>
+        <v>517</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>83</v>
+        <v>591</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>83</v>
+        <v>592</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>83</v>
@@ -14329,13 +14352,13 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>83</v>
@@ -14347,13 +14370,13 @@
         <v>83</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>83</v>
+        <v>584</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>83</v>
+        <v>585</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>587</v>
+        <v>503</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>83</v>
@@ -14364,10 +14387,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14390,16 +14413,18 @@
         <v>83</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>158</v>
+        <v>594</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>597</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>83</v>
       </c>
@@ -14447,7 +14472,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14468,10 +14493,10 @@
         <v>83</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>559</v>
+        <v>83</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14482,10 +14507,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14496,7 +14521,7 @@
         <v>81</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>83</v>
@@ -14505,20 +14530,18 @@
         <v>83</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>593</v>
+        <v>158</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>596</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>83</v>
@@ -14567,13 +14590,13 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>83</v>
@@ -14588,10 +14611,10 @@
         <v>83</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>597</v>
+        <v>571</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
@@ -14602,10 +14625,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14628,16 +14651,16 @@
         <v>94</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14687,7 +14710,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14708,10 +14731,10 @@
         <v>83</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>83</v>
@@ -14722,10 +14745,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14748,20 +14771,18 @@
         <v>94</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>539</v>
+        <v>611</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>83</v>
       </c>
@@ -14809,7 +14830,7 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -14830,10 +14851,10 @@
         <v>83</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
@@ -14844,10 +14865,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14858,7 +14879,7 @@
         <v>81</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>83</v>
@@ -14867,19 +14888,23 @@
         <v>83</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>158</v>
+        <v>551</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>159</v>
+        <v>617</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
+        <v>618</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>620</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>83</v>
       </c>
@@ -14927,19 +14952,19 @@
         <v>83</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>161</v>
+        <v>616</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>83</v>
@@ -14948,10 +14973,10 @@
         <v>83</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>83</v>
+        <v>621</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>162</v>
+        <v>622</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>83</v>
@@ -14962,10 +14987,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14976,7 +15001,7 @@
         <v>81</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>83</v>
@@ -14988,13 +15013,13 @@
         <v>83</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -15033,29 +15058,31 @@
         <v>83</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AC105" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD105" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>83</v>
@@ -15067,7 +15094,7 @@
         <v>83</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>83</v>
@@ -15078,14 +15105,12 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
         <v>83</v>
       </c>
@@ -15094,7 +15119,7 @@
         <v>81</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>83</v>
@@ -15106,13 +15131,13 @@
         <v>83</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>228</v>
+        <v>138</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15151,16 +15176,14 @@
         <v>83</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AC106" s="2"/>
       <c r="AD106" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>170</v>
@@ -15172,7 +15195,7 @@
         <v>82</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>144</v>
@@ -15187,7 +15210,7 @@
         <v>83</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>83</v>
@@ -15198,12 +15221,14 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="C107" s="2"/>
+        <v>624</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="D107" t="s" s="2">
         <v>83</v>
       </c>
@@ -15224,13 +15249,13 @@
         <v>83</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>158</v>
+        <v>228</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15281,19 +15306,19 @@
         <v>83</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>83</v>
@@ -15305,7 +15330,7 @@
         <v>83</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>83</v>
@@ -15316,10 +15341,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15330,7 +15355,7 @@
         <v>81</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>83</v>
@@ -15342,13 +15367,13 @@
         <v>83</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15387,31 +15412,31 @@
         <v>83</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="AC108" t="s" s="2">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="AD108" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>83</v>
@@ -15423,7 +15448,7 @@
         <v>83</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>83</v>
@@ -15434,10 +15459,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15445,10 +15470,10 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>83</v>
@@ -15460,24 +15485,22 @@
         <v>83</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>83</v>
@@ -15507,31 +15530,31 @@
         <v>83</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="AC109" t="s" s="2">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="AD109" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>83</v>
@@ -15543,7 +15566,7 @@
         <v>83</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>83</v>
@@ -15554,10 +15577,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15580,22 +15603,24 @@
         <v>83</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>235</v>
+        <v>107</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q110" s="2"/>
       <c r="R110" t="s" s="2">
-        <v>83</v>
+        <v>233</v>
       </c>
       <c r="S110" t="s" s="2">
         <v>83</v>
@@ -15637,10 +15662,10 @@
         <v>83</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>93</v>
@@ -15649,7 +15674,7 @@
         <v>83</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>83</v>
@@ -15672,46 +15697,42 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>550</v>
+        <v>83</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>138</v>
+        <v>235</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>551</v>
+        <v>189</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>83</v>
       </c>
@@ -15759,19 +15780,19 @@
         <v>83</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>553</v>
+        <v>191</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>83</v>
@@ -15794,45 +15815,45 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>83</v>
+        <v>562</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>283</v>
+        <v>138</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>625</v>
+        <v>563</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>626</v>
+        <v>564</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>627</v>
+        <v>168</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>83</v>
@@ -15857,13 +15878,13 @@
         <v>83</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>505</v>
+        <v>83</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>628</v>
+        <v>83</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>629</v>
+        <v>83</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>83</v>
@@ -15881,34 +15902,34 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>624</v>
+        <v>565</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>630</v>
+        <v>83</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>358</v>
+        <v>83</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>631</v>
+        <v>136</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>632</v>
+        <v>83</v>
       </c>
       <c r="AP112" t="s" s="2">
         <v>83</v>
@@ -15916,10 +15937,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15927,7 +15948,7 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>93</v>
@@ -15942,19 +15963,19 @@
         <v>94</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>634</v>
+        <v>283</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>430</v>
+        <v>637</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>432</v>
+        <v>312</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>83</v>
@@ -15979,32 +16000,34 @@
         <v>83</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>83</v>
+        <v>517</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>83</v>
+        <v>639</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>83</v>
+        <v>640</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB113" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AC113" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD113" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>93</v>
@@ -16019,31 +16042,29 @@
         <v>83</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>435</v>
+        <v>317</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>436</v>
+        <v>318</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>83</v>
+        <v>319</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>437</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="C114" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
         <v>83</v>
       </c>
@@ -16064,19 +16085,19 @@
         <v>94</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>158</v>
+        <v>643</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>83</v>
@@ -16113,19 +16134,17 @@
         <v>83</v>
       </c>
       <c r="AB114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="AC114" s="2"/>
       <c r="AD114" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -16143,30 +16162,30 @@
         <v>83</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>83</v>
@@ -16185,22 +16204,22 @@
         <v>83</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>456</v>
+        <v>158</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>457</v>
+        <v>644</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>459</v>
+        <v>645</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>83</v>
@@ -16249,7 +16268,7 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -16258,39 +16277,39 @@
         <v>93</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>460</v>
+        <v>105</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>83</v>
+        <v>646</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>83</v>
+        <v>440</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>83</v>
@@ -16309,22 +16328,22 @@
         <v>83</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>466</v>
+        <v>644</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>468</v>
+        <v>645</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>83</v>
@@ -16373,7 +16392,7 @@
         <v>83</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>81</v>
@@ -16382,39 +16401,39 @@
         <v>93</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>469</v>
+        <v>105</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>83</v>
+        <v>646</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>136</v>
+        <v>438</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>83</v>
+        <v>440</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>83</v>
@@ -16433,22 +16452,22 @@
         <v>83</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N117" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L117" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>636</v>
-      </c>
       <c r="O117" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>83</v>
@@ -16497,7 +16516,7 @@
         <v>83</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>81</v>
@@ -16506,39 +16525,39 @@
         <v>93</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>105</v>
+        <v>474</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>637</v>
+        <v>83</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP117" t="s" s="2">
-        <v>437</v>
+        <v>83</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B118" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="B118" t="s" s="2">
-        <v>633</v>
-      </c>
       <c r="C118" t="s" s="2">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>83</v>
@@ -16557,22 +16576,22 @@
         <v>83</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>373</v>
+        <v>446</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>636</v>
+        <v>449</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>83</v>
@@ -16621,7 +16640,7 @@
         <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16630,39 +16649,39 @@
         <v>93</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>105</v>
+        <v>450</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>637</v>
+        <v>83</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>435</v>
+        <v>136</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>437</v>
+        <v>83</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>83</v>
@@ -16684,19 +16703,19 @@
         <v>94</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>83</v>
@@ -16745,7 +16764,7 @@
         <v>83</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>81</v>
@@ -16763,30 +16782,30 @@
         <v>83</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP119" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>83</v>
@@ -16805,22 +16824,22 @@
         <v>83</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>443</v>
+        <v>376</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N120" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="M120" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="O120" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>83</v>
@@ -16869,7 +16888,7 @@
         <v>83</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -16878,39 +16897,39 @@
         <v>93</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>447</v>
+        <v>105</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>83</v>
+        <v>646</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>83</v>
+        <v>440</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>451</v>
+        <v>483</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>83</v>
@@ -16932,19 +16951,19 @@
         <v>94</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>283</v>
+        <v>484</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>83</v>
@@ -16969,11 +16988,13 @@
         <v>83</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y121" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z121" t="s" s="2">
-        <v>647</v>
+        <v>83</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>83</v>
@@ -16991,7 +17012,7 @@
         <v>83</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
@@ -17009,29 +17030,31 @@
         <v>83</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP121" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="C122" s="2"/>
+        <v>642</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="D122" t="s" s="2">
         <v>83</v>
       </c>
@@ -17052,19 +17075,19 @@
         <v>83</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>283</v>
+        <v>454</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>650</v>
+        <v>456</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>651</v>
+        <v>457</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>483</v>
+        <v>435</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>83</v>
@@ -17089,13 +17112,13 @@
         <v>83</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>313</v>
+        <v>83</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>484</v>
+        <v>83</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>485</v>
+        <v>83</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>83</v>
@@ -17113,7 +17136,7 @@
         <v>83</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -17122,10 +17145,10 @@
         <v>93</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>486</v>
+        <v>155</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>105</v>
+        <v>458</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>83</v>
@@ -17134,10 +17157,10 @@
         <v>83</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>136</v>
+        <v>459</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>83</v>
@@ -17148,21 +17171,23 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="C123" s="2"/>
+        <v>642</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="D123" t="s" s="2">
-        <v>489</v>
+        <v>83</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>83</v>
@@ -17171,22 +17196,22 @@
         <v>83</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>283</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>654</v>
+        <v>433</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>490</v>
+        <v>435</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>83</v>
@@ -17211,13 +17236,11 @@
         <v>83</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="Y123" s="2"/>
       <c r="Z123" t="s" s="2">
-        <v>492</v>
+        <v>658</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>83</v>
@@ -17235,13 +17258,13 @@
         <v>83</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>83</v>
@@ -17253,19 +17276,19 @@
         <v>83</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>657</v>
+        <v>438</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>574</v>
+        <v>439</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP123" t="s" s="2">
-        <v>658</v>
+        <v>440</v>
       </c>
     </row>
     <row r="124">
@@ -17284,7 +17307,7 @@
         <v>81</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>83</v>
@@ -17296,7 +17319,7 @@
         <v>83</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>84</v>
+        <v>283</v>
       </c>
       <c r="L124" t="s" s="2">
         <v>660</v>
@@ -17305,10 +17328,10 @@
         <v>661</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>542</v>
+        <v>662</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>543</v>
+        <v>489</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>83</v>
@@ -17333,13 +17356,13 @@
         <v>83</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>83</v>
+        <v>313</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>83</v>
+        <v>490</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>83</v>
+        <v>491</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>83</v>
@@ -17363,10 +17386,10 @@
         <v>81</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>83</v>
+        <v>492</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>105</v>
@@ -17378,15 +17401,259 @@
         <v>83</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>545</v>
+        <v>136</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>546</v>
+        <v>493</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP124" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="P125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q125" s="2"/>
+      <c r="R125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AO125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP125" t="s" s="2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="P126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q126" s="2"/>
+      <c r="R126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AO126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP126" t="s" s="2">
         <v>83</v>
       </c>
     </row>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}eu-lab-1:If observation status is other then "registered" or "cancelled", at least one of these Observation elements shall be provided:  "value", "dataAbsentReason", "hasMember" or "component" {(status in ('registered'|'cancelled')) or value.exists() or hasMember.exists() or component.exists() or dataAbsentReason.exists()}eu-lab-2:If observation has components and observation status is other then "registered" or "cancelled", at least one of these Observation.component elements shall be provided:  "value" or "dataAbsentReason" {component.exists() implies (status in ('registered'|'cancelled')) or component.value.exists() or component.dataAbsentReason.exists()}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies (specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies (value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-interpretation-code-loinc:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-interpretation-code-snomedct:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code)}ch-elm-patient-name-representation-initial-loinc:If Observation.code is mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given must have one character and the following elements must not be provided: patient.telecom, patient.address.line {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials')))}ch-elm-patient-name-representation-initial-snomedct:If Observation.code is mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given must have one character and the following elements must not be provided: patient.telecom, patient.address.line {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials')))}ch-elm-patient-name-representation-initial-or-vctcode-loinc:If Observation.code is mapped to initials or vctcode in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name family and given must have one character or - in case of a VCT patient - must be masked and the following elements must not be provided: patient.telecom, patient.address.line. {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials-or-vctcode' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials') or subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientVCT')))}ch-elm-patient-name-representation-initial-or-vctcode-snomedct:If Observation.code is mapped to initials or vctcode in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name family and given must have one character or - in case of a VCT patient - must be masked and the following elements must not be provided: patient.telecom, patient.address.line. {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials-or-vctcode' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials') or subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientVCT')))}ch-elm-patient-name-representation-hiv-code-loinc:If Observation.code is mapped to hiv-code in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient representation must follow profile resource profile: CH ELM Patient HIV {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'hiv-code' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientHIV')))}ch-elm-patient-name-representation-hiv-code-snomedct:If Observation.code is mapped to hiv-code in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient representation must follow profile resource profile: CH ELM Patient HIV {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'hiv-code' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientHIV')))}ch-elm-observation-profile-loinc:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile', then the observation must be conform to the mapped profile {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).exists() implies conformsTo('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-observation-profile-snomedct:If Observation.code is mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile', then the observation must be conform to the mapped profile {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).exists() implies conformsTo('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-observation-profile'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code)}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}eu-lab-1:If observation status is other then "registered" or "cancelled", at least one of these Observation elements shall be provided:  "value", "dataAbsentReason", "hasMember" or "component" {(status in ('registered'|'cancelled')) or value.exists() or hasMember.exists() or component.exists() or dataAbsentReason.exists()}eu-lab-2:If observation has components and observation status is other then "registered" or "cancelled", at least one of these Observation.component elements shall be provided:  "value" or "dataAbsentReason" {component.exists() implies (status in ('registered'|'cancelled')) or component.value.exists() or component.dataAbsentReason.exists()}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies (specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-patient-name-representation-initial-loinc:If Observation.code is mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given must have one character and the following elements must not be provided: patient.telecom, patient.address.line {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials')))}ch-elm-patient-name-representation-initial-snomedct:If Observation.code is mapped to initials in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name.first and given must have one character and the following elements must not be provided: patient.telecom, patient.address.line {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials')))}ch-elm-patient-name-representation-initial-or-vctcode-loinc:If Observation.code is mapped to initials or vctcode in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name family and given must have one character or - in case of a VCT patient - must be masked and the following elements must not be provided: patient.telecom, patient.address.line. {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'initials-or-vctcode' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials') or subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientVCT')))}ch-elm-patient-name-representation-initial-or-vctcode-snomedct:If Observation.code is mapped to initials or vctcode in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient.name family and given must have one character or - in case of a VCT patient - must be masked and the following elements must not be provided: patient.telecom, patient.address.line. {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'initials-or-vctcode' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientInitials') or subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientVCT')))}ch-elm-patient-name-representation-hiv-code-loinc:If Observation.code is mapped to hiv-code in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient representation must follow profile resource profile: CH ELM Patient HIV {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code = 'hiv-code' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientHIV')))}ch-elm-patient-name-representation-hiv-code-snomedct:If Observation.code is mapped to hiv-code in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation then patient representation must follow profile resource profile: CH ELM Patient HIV {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).empty() or ('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-foph-patient-name-representation'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code = 'hiv-code' implies (subject.resolve().conformsTo('http://fhir.ch/ig/ch-elm/StructureDefinition/ChElmPatientHIV')))}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1004,7 +1004,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-laboratory-observation</t>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-laboratory-observation-complete</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -2459,7 +2459,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.73046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="75.03125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -12712,7 +12712,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>93</v>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4856" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4856" uniqueCount="652">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -471,7 +471,7 @@
     <t>supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {workflow-supportingInfo}
+    <t xml:space="preserve">Extension {workflow-supportingInfo|4.0.1}
 </t>
   </si>
   <si>
@@ -479,6 +479,10 @@
   </si>
   <si>
     <t>Other resources *from the patient record* that may be relevant to the event.  The information from these resources was either used to create the instance or is provided to help with its interpretation.  This extension **should not** be used if more specific  inline elements  or extensions are available.  For example, use `Observation.hasMember`  instead of supportingInformation for  representing the members of an Observation panel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Observation.extension:triggeredBy-r5</t>
@@ -495,10 +499,6 @@
   </si>
   <si>
     <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Observation.extension:triggeredBy-r5.id</t>
@@ -729,7 +729,7 @@
     <t>value-r5</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value[x]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value%5Bx%5D}
 </t>
   </si>
   <si>
@@ -1247,7 +1247,7 @@
     <t>data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {data-absent-reason}
+    <t xml:space="preserve">Extension {data-absent-reason|4.0.1}
 </t>
   </si>
   <si>
@@ -1344,7 +1344,7 @@
     <t>performerFunction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {event-performerFunction}
+    <t xml:space="preserve">Extension {event-performerFunction|4.0.1}
 </t>
   </si>
   <si>
@@ -1426,19 +1426,6 @@
     <t>Ratio if required by leading code, see also 'Guidance - Laboratory Result'</t>
   </si>
   <si>
-    <t>A measured ratio (or a ratio that can potentially be measured) and uncertainty of the measurement. This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueQuantity</t>
   </si>
   <si>
@@ -1452,23 +1439,6 @@
     <t>Quantity if required by leading code, see also 'Guidance - Laboratory Result'</t>
   </si>
   <si>
-    <t>A measured amount (or an amount that can potentially be measured) and uncertainty of the measurement. Note that measured amounts include amounts that are not precisely quantified, including amounts involving arbitrary units and floating currencies.
-This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueCodeableConcept</t>
   </si>
   <si>
@@ -1499,25 +1469,6 @@
   <si>
     <t xml:space="preserve">Range {http://hl7.org/fhir/uv/ips/StructureDefinition/Range-uv-ips}
 </t>
-  </si>
-  <si>
-    <t>Set of values bounded by low and high</t>
-  </si>
-  <si>
-    <t>A set of ordered Quantities defined by a low and high limit.</t>
-  </si>
-  <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
-  </si>
-  <si>
-    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
   </si>
   <si>
     <t>Observation.value[x]:valueTime</t>
@@ -2069,9 +2020,6 @@
     <t>Observation.component.value[x]:valueRatio</t>
   </si>
   <si>
-    <t>A measured ratio using UCUM</t>
-  </si>
-  <si>
     <t>Observation.component.value[x]:valueTime</t>
   </si>
   <si>
@@ -2084,10 +2032,11 @@
     <t>Observation.component.value[x]:valueQuantity</t>
   </si>
   <si>
-    <t>A measured amount using UCUM</t>
-  </si>
-  <si>
     <t>Observation.component.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {http://hl7.org/fhir/uv/ips/StructureDefinition/CodeableConcept-uv-ips}
+</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/ips/ValueSet/results-coded-values-laboratory-uv-ips</t>
@@ -2434,15 +2383,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.95703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.72265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.12109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2453,28 +2402,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="75.03125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="64.328125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3655,7 +3604,7 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>144</v>
@@ -3681,13 +3630,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>137</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>83</v>
@@ -3709,13 +3658,13 @@
         <v>83</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3775,7 +3724,7 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>144</v>
@@ -6153,7 +6102,7 @@
         <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>144</v>
@@ -6273,7 +6222,7 @@
         <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>144</v>
@@ -6393,7 +6342,7 @@
         <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>144</v>
@@ -6453,7 +6402,7 @@
         <v>229</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6513,7 +6462,7 @@
         <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>144</v>
@@ -10761,7 +10710,7 @@
         <v>81</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>83</v>
@@ -11614,7 +11563,7 @@
         <v>83</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>446</v>
@@ -11623,10 +11572,10 @@
         <v>447</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>435</v>
@@ -11687,39 +11636,39 @@
         <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>155</v>
+        <v>436</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>450</v>
+        <v>105</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>83</v>
+        <v>437</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>136</v>
+        <v>438</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>83</v>
+        <v>440</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>430</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>83</v>
@@ -11738,19 +11687,19 @@
         <v>83</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>435</v>
@@ -11811,39 +11760,39 @@
         <v>93</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>155</v>
+        <v>436</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>458</v>
+        <v>105</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>83</v>
+        <v>437</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>83</v>
+        <v>440</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>430</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>83</v>
@@ -11868,7 +11817,7 @@
         <v>308</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>433</v>
@@ -11906,7 +11855,7 @@
       </c>
       <c r="Y79" s="2"/>
       <c r="Z79" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>83</v>
@@ -11959,13 +11908,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>430</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>83</v>
@@ -11987,7 +11936,7 @@
         <v>94</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>432</v>
@@ -12083,13 +12032,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>430</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>83</v>
@@ -12108,19 +12057,19 @@
         <v>83</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>472</v>
+        <v>433</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>435</v>
@@ -12181,39 +12130,39 @@
         <v>93</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>155</v>
+        <v>436</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>474</v>
+        <v>105</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>83</v>
+        <v>437</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>475</v>
+        <v>438</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>83</v>
+        <v>440</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>430</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>83</v>
@@ -12235,7 +12184,7 @@
         <v>94</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>432</v>
@@ -12331,13 +12280,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>430</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>83</v>
@@ -12455,13 +12404,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>430</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>83</v>
@@ -12483,7 +12432,7 @@
         <v>94</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>432</v>
@@ -12579,10 +12528,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12608,16 +12557,16 @@
         <v>283</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>83</v>
@@ -12645,10 +12594,10 @@
         <v>313</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>83</v>
@@ -12666,7 +12615,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12675,7 +12624,7 @@
         <v>93</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>105</v>
@@ -12690,7 +12639,7 @@
         <v>136</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>83</v>
@@ -12701,14 +12650,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12730,16 +12679,16 @@
         <v>308</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>83</v>
@@ -12767,10 +12716,10 @@
         <v>313</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>83</v>
@@ -12788,7 +12737,7 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12806,27 +12755,27 @@
         <v>83</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>504</v>
+        <v>489</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12849,19 +12798,19 @@
         <v>83</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>83</v>
@@ -12910,7 +12859,7 @@
         <v>83</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -12931,10 +12880,10 @@
         <v>83</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
@@ -12945,10 +12894,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12974,13 +12923,13 @@
         <v>283</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -13006,13 +12955,13 @@
         <v>83</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>83</v>
@@ -13030,7 +12979,7 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -13048,27 +12997,27 @@
         <v>83</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13094,16 +13043,16 @@
         <v>283</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>83</v>
@@ -13132,7 +13081,7 @@
       </c>
       <c r="Y89" s="2"/>
       <c r="Z89" t="s" s="2">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>83</v>
@@ -13150,7 +13099,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -13171,10 +13120,10 @@
         <v>83</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>83</v>
@@ -13185,10 +13134,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13211,16 +13160,16 @@
         <v>83</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13270,7 +13219,7 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13288,27 +13237,27 @@
         <v>83</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>540</v>
+        <v>525</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13331,16 +13280,16 @@
         <v>83</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13390,7 +13339,7 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -13408,27 +13357,27 @@
         <v>83</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>549</v>
+        <v>534</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13451,19 +13400,19 @@
         <v>83</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>83</v>
@@ -13512,7 +13461,7 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
@@ -13524,7 +13473,7 @@
         <v>83</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>83</v>
@@ -13533,10 +13482,10 @@
         <v>83</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>83</v>
@@ -13547,10 +13496,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13665,10 +13614,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13785,14 +13734,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13814,10 +13763,10 @@
         <v>138</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="N95" t="s" s="2">
         <v>168</v>
@@ -13872,7 +13821,7 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13907,10 +13856,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13933,13 +13882,13 @@
         <v>83</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13990,7 +13939,7 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -13999,7 +13948,7 @@
         <v>93</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>105</v>
@@ -14011,10 +13960,10 @@
         <v>83</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
@@ -14025,10 +13974,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14051,13 +14000,13 @@
         <v>83</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14108,7 +14057,7 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
@@ -14117,7 +14066,7 @@
         <v>93</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>105</v>
@@ -14129,10 +14078,10 @@
         <v>83</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>83</v>
@@ -14143,10 +14092,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14172,16 +14121,16 @@
         <v>283</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
@@ -14209,10 +14158,10 @@
         <v>117</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>83</v>
@@ -14230,7 +14179,7 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14248,13 +14197,13 @@
         <v>83</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -14265,10 +14214,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14294,16 +14243,16 @@
         <v>283</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>83</v>
@@ -14328,13 +14277,13 @@
         <v>83</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>83</v>
@@ -14352,7 +14301,7 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -14370,13 +14319,13 @@
         <v>83</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>83</v>
@@ -14387,10 +14336,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14413,17 +14362,17 @@
         <v>83</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>83</v>
@@ -14472,7 +14421,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14496,7 +14445,7 @@
         <v>83</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14507,10 +14456,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14536,10 +14485,10 @@
         <v>158</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14590,7 +14539,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14611,10 +14560,10 @@
         <v>83</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
@@ -14625,10 +14574,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14651,16 +14600,16 @@
         <v>94</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14710,7 +14659,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14731,10 +14680,10 @@
         <v>83</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>83</v>
@@ -14745,10 +14694,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14771,16 +14720,16 @@
         <v>94</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14830,7 +14779,7 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -14851,10 +14800,10 @@
         <v>83</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
@@ -14865,10 +14814,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14891,19 +14840,19 @@
         <v>94</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>83</v>
@@ -14952,7 +14901,7 @@
         <v>83</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>81</v>
@@ -14973,10 +14922,10 @@
         <v>83</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>83</v>
@@ -14987,10 +14936,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15105,10 +15054,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15221,10 +15170,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>227</v>
@@ -15255,7 +15204,7 @@
         <v>229</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15315,7 +15264,7 @@
         <v>82</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>144</v>
@@ -15341,10 +15290,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15459,10 +15408,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15577,10 +15526,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15697,10 +15646,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15815,14 +15764,14 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15844,10 +15793,10 @@
         <v>138</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="N112" t="s" s="2">
         <v>168</v>
@@ -15902,7 +15851,7 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -15937,10 +15886,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15966,13 +15915,13 @@
         <v>283</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>312</v>
@@ -16000,13 +15949,13 @@
         <v>83</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>83</v>
@@ -16024,7 +15973,7 @@
         <v>83</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>93</v>
@@ -16042,7 +15991,7 @@
         <v>83</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>317</v>
@@ -16059,10 +16008,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16085,16 +16034,16 @@
         <v>94</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>433</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>435</v>
@@ -16144,7 +16093,7 @@
         <v>142</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -16162,7 +16111,7 @@
         <v>83</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>438</v>
@@ -16179,10 +16128,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="C115" t="s" s="2">
         <v>442</v>
@@ -16210,13 +16159,13 @@
         <v>158</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>433</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>435</v>
@@ -16268,7 +16217,7 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -16286,7 +16235,7 @@
         <v>83</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>438</v>
@@ -16303,13 +16252,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>83</v>
@@ -16331,16 +16280,16 @@
         <v>94</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>433</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>435</v>
@@ -16392,7 +16341,7 @@
         <v>83</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>81</v>
@@ -16410,7 +16359,7 @@
         <v>83</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>438</v>
@@ -16427,13 +16376,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>83</v>
@@ -16452,19 +16401,19 @@
         <v>83</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>471</v>
+        <v>629</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>472</v>
+        <v>433</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>473</v>
+        <v>630</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>435</v>
@@ -16516,7 +16465,7 @@
         <v>83</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>81</v>
@@ -16525,36 +16474,36 @@
         <v>93</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>474</v>
+        <v>105</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>83</v>
+        <v>631</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>475</v>
+        <v>438</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP117" t="s" s="2">
-        <v>83</v>
+        <v>440</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="C118" t="s" s="2">
         <v>445</v>
@@ -16576,19 +16525,19 @@
         <v>83</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>446</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>651</v>
+        <v>629</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>449</v>
+        <v>630</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>435</v>
@@ -16640,7 +16589,7 @@
         <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16649,39 +16598,39 @@
         <v>93</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>450</v>
+        <v>105</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>83</v>
+        <v>631</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>136</v>
+        <v>438</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>83</v>
+        <v>440</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>83</v>
@@ -16703,16 +16652,16 @@
         <v>94</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>433</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>435</v>
@@ -16764,7 +16713,7 @@
         <v>83</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>81</v>
@@ -16782,7 +16731,7 @@
         <v>83</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>438</v>
@@ -16799,13 +16748,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>83</v>
@@ -16830,13 +16779,13 @@
         <v>376</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="M120" t="s" s="2">
         <v>433</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>435</v>
@@ -16888,7 +16837,7 @@
         <v>83</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -16906,7 +16855,7 @@
         <v>83</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>438</v>
@@ -16923,13 +16872,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>83</v>
@@ -16951,16 +16900,16 @@
         <v>94</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="M121" t="s" s="2">
         <v>433</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>435</v>
@@ -17012,7 +16961,7 @@
         <v>83</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
@@ -17030,7 +16979,7 @@
         <v>83</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>438</v>
@@ -17047,13 +16996,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D122" t="s" s="2">
         <v>83</v>
@@ -17072,19 +17021,19 @@
         <v>83</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>656</v>
+        <v>629</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>457</v>
+        <v>630</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>435</v>
@@ -17136,7 +17085,7 @@
         <v>83</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -17145,39 +17094,39 @@
         <v>93</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>458</v>
+        <v>105</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>83</v>
+        <v>631</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>83</v>
+        <v>440</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>83</v>
@@ -17199,16 +17148,16 @@
         <v>94</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>283</v>
+        <v>641</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="M123" t="s" s="2">
         <v>433</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>435</v>
@@ -17240,7 +17189,7 @@
       </c>
       <c r="Y123" s="2"/>
       <c r="Z123" t="s" s="2">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>83</v>
@@ -17258,7 +17207,7 @@
         <v>83</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -17276,7 +17225,7 @@
         <v>83</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>438</v>
@@ -17293,10 +17242,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17322,16 +17271,16 @@
         <v>283</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>83</v>
@@ -17359,10 +17308,10 @@
         <v>313</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>83</v>
@@ -17380,7 +17329,7 @@
         <v>83</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>81</v>
@@ -17389,7 +17338,7 @@
         <v>93</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>105</v>
@@ -17404,7 +17353,7 @@
         <v>136</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>83</v>
@@ -17415,14 +17364,14 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -17444,16 +17393,16 @@
         <v>283</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>83</v>
@@ -17481,10 +17430,10 @@
         <v>313</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>83</v>
@@ -17502,7 +17451,7 @@
         <v>83</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>81</v>
@@ -17520,27 +17469,27 @@
         <v>83</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP125" t="s" s="2">
-        <v>504</v>
+        <v>489</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17566,16 +17515,16 @@
         <v>84</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>83</v>
@@ -17624,7 +17573,7 @@
         <v>83</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>81</v>
@@ -17645,10 +17594,10 @@
         <v>83</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>83</v>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
